--- a/biology/Botanique/Château_de_Mons_(Gers)/Château_de_Mons_(Gers).xlsx
+++ b/biology/Botanique/Château_de_Mons_(Gers)/Château_de_Mons_(Gers).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Mons_(Gers)</t>
+          <t>Château_de_Mons_(Gers)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Mons se situe sur la commune de Caussens, dans le département du Gers en région Occitanie. Outre le château historique, il abrite un domaine viticole.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Mons_(Gers)</t>
+          <t>Château_de_Mons_(Gers)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Construit en 1285 par le roi d'Angleterre Édouard Ier, le château de Mons est situé sur le chemin de Saint-Jacques-de-Compostelle[1], sur le site d'une ancienne villa gallo-romaine. Il fut détruit lors de la guerre de Cent Ans et reconstruit sur les ruines à la Renaissance.
-Après plusieurs familles propriétaires, dont les comtes du Bouzet, il finit par être vendu, en 1963, à la chambre d'agriculture du Gers[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Construit en 1285 par le roi d'Angleterre Édouard Ier, le château de Mons est situé sur le chemin de Saint-Jacques-de-Compostelle, sur le site d'une ancienne villa gallo-romaine. Il fut détruit lors de la guerre de Cent Ans et reconstruit sur les ruines à la Renaissance.
+Après plusieurs familles propriétaires, dont les comtes du Bouzet, il finit par être vendu, en 1963, à la chambre d'agriculture du Gers.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Mons_(Gers)</t>
+          <t>Château_de_Mons_(Gers)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,16 +560,126 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Utilisation des locaux
-Les locaux sont loués pour des fêtes (mariages, réceptions privées[3], séminaires, séjours à thèmes[4],[5]...).
-Intérêt historique
-Le château aurait appartenu à la famille Lannes, descendants du maréchal Jean Lannes, dont on peut trouver les armoiries dans la chapelle. 
-En outre, le plafond de la chapelle est décoré du blason de Mgr Pierre-Henri Gerault de Langalerie, Archevêque d'Auch[6].
-Production viticole
-Depuis le 21 janvier 1963 le château est la propriété de la chambre d'agriculture du Gers. Ce domaine viticole produit du vin, du floc de Gascogne et de l'armagnac.
-Intérêt scientifique
-Le domaine accueille la collection de cépage du conservatoire du patrimoine biologique régional Midi-Pyrénées[7].
-Au domaine de Mons, une cuverie d'essai a été installée. Animée par un ingénieur agronome de l'institut français de la vigne et du vin, la cuverie expérimentale permet de mener des essais de vinification sur les cépages locaux, en collaboration avec les producteurs de vin de pays des côtes de Gascogne[8].
+          <t>Utilisation des locaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les locaux sont loués pour des fêtes (mariages, réceptions privées, séminaires, séjours à thèmes,...).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Château_de_Mons_(Gers)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_de_Mons_(Gers)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les ressources du domaine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Intérêt historique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le château aurait appartenu à la famille Lannes, descendants du maréchal Jean Lannes, dont on peut trouver les armoiries dans la chapelle. 
+En outre, le plafond de la chapelle est décoré du blason de Mgr Pierre-Henri Gerault de Langalerie, Archevêque d'Auch.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Château_de_Mons_(Gers)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_de_Mons_(Gers)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les ressources du domaine</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Production viticole</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis le 21 janvier 1963 le château est la propriété de la chambre d'agriculture du Gers. Ce domaine viticole produit du vin, du floc de Gascogne et de l'armagnac.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Château_de_Mons_(Gers)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_de_Mons_(Gers)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les ressources du domaine</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Intérêt scientifique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le domaine accueille la collection de cépage du conservatoire du patrimoine biologique régional Midi-Pyrénées.
+Au domaine de Mons, une cuverie d'essai a été installée. Animée par un ingénieur agronome de l'institut français de la vigne et du vin, la cuverie expérimentale permet de mener des essais de vinification sur les cépages locaux, en collaboration avec les producteurs de vin de pays des côtes de Gascogne.
 </t>
         </is>
       </c>
